--- a/postal_code_information_FULL.xlsx
+++ b/postal_code_information_FULL.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kahmotor-my.sharepoint.com/personal/hastika_honda_com_sg/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kahmotor-my.sharepoint.com/personal/hastika_honda_com_sg/Documents/postal_code_app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="91" documentId="8_{F04B4EB2-9912-485C-B3C5-3BEBBAAEB65D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3EF4DDC0-11D8-472A-B725-68A29B6663A2}"/>
+  <xr:revisionPtr revIDLastSave="93" documentId="8_{F04B4EB2-9912-485C-B3C5-3BEBBAAEB65D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9BA36CC2-924F-409A-B097-5FDB7B015A25}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,9 +25,6 @@
     <t>postcode_prefix</t>
   </si>
   <si>
-    <t>region</t>
-  </si>
-  <si>
     <t>01</t>
   </si>
   <si>
@@ -371,6 +368,9 @@
   </si>
   <si>
     <t>Seletar</t>
+  </si>
+  <si>
+    <t>Postal Code</t>
   </si>
 </sst>
 </file>
@@ -437,10 +437,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -749,14 +749,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B90" sqref="B90"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="49.88671875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -765,803 +765,821 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>89</v>
+        <v>116</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>88</v>
+        <v>82</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="C3" s="4"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C4" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="C4" s="4"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C5" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C6" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C7" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="C7" s="4"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>90</v>
+        <v>82</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>91</v>
+        <v>82</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>83</v>
-      </c>
-      <c r="C11" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>83</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>92</v>
+        <v>82</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
-      </c>
-      <c r="C13" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="C13" s="4"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>83</v>
-      </c>
-      <c r="C14" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="C14" s="4"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>83</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>93</v>
+        <v>82</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
-      </c>
-      <c r="C16" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="C16" s="4"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>83</v>
-      </c>
-      <c r="C17" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="C17" s="4"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>83</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>95</v>
+        <v>82</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>83</v>
-      </c>
-      <c r="C20" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="C20" s="4"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>83</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>96</v>
+        <v>82</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>83</v>
-      </c>
-      <c r="C22" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="C22" s="4"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>97</v>
+        <v>82</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>83</v>
-      </c>
-      <c r="C24" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="C24" s="4"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>83</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>98</v>
+        <v>82</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>83</v>
-      </c>
-      <c r="C26" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="C26" s="4"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>83</v>
-      </c>
-      <c r="C27" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="C27" s="4"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>83</v>
-      </c>
-      <c r="C28" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="C28" s="4"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>83</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>99</v>
+        <v>82</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>83</v>
-      </c>
-      <c r="C30" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="C30" s="4"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>83</v>
-      </c>
-      <c r="C31" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="C31" s="4"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>83</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>100</v>
+        <v>82</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>83</v>
-      </c>
-      <c r="C33" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="C33" s="4"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>83</v>
-      </c>
-      <c r="C34" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="C34" s="4"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>83</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>101</v>
+        <v>82</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>83</v>
-      </c>
-      <c r="C36" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="C36" s="4"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>83</v>
-      </c>
-      <c r="C37" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="C37" s="4"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>83</v>
-      </c>
-      <c r="C38" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="C38" s="4"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>83</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>102</v>
+        <v>82</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>83</v>
-      </c>
-      <c r="C40" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="C40" s="4"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C41" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="C41" s="4"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>83</v>
-      </c>
-      <c r="C42" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="C42" s="4"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>84</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>103</v>
+        <v>83</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>84</v>
-      </c>
-      <c r="C44" s="3"/>
+        <v>83</v>
+      </c>
+      <c r="C44" s="4"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>84</v>
-      </c>
-      <c r="C45" s="3"/>
+        <v>83</v>
+      </c>
+      <c r="C45" s="4"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>84</v>
-      </c>
-      <c r="C46" s="3"/>
+        <v>83</v>
+      </c>
+      <c r="C46" s="4"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>84</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>104</v>
+        <v>83</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>84</v>
-      </c>
-      <c r="C48" s="3"/>
+        <v>83</v>
+      </c>
+      <c r="C48" s="4"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>84</v>
-      </c>
-      <c r="C49" s="3"/>
+        <v>83</v>
+      </c>
+      <c r="C49" s="4"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>84</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>105</v>
+        <v>83</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>84</v>
-      </c>
-      <c r="C51" s="3"/>
+        <v>83</v>
+      </c>
+      <c r="C51" s="4"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>84</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>106</v>
+        <v>83</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>84</v>
-      </c>
-      <c r="C53" s="3"/>
+        <v>83</v>
+      </c>
+      <c r="C53" s="4"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>87</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>107</v>
+        <v>86</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>87</v>
-      </c>
-      <c r="C55" s="3"/>
+        <v>86</v>
+      </c>
+      <c r="C55" s="4"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>87</v>
-      </c>
-      <c r="C56" s="3"/>
+        <v>86</v>
+      </c>
+      <c r="C56" s="4"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>83</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>108</v>
+        <v>82</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>83</v>
-      </c>
-      <c r="C58" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="C58" s="4"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>83</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>109</v>
+        <v>82</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>83</v>
-      </c>
-      <c r="C60" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="C60" s="4"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>86</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>110</v>
+        <v>85</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>86</v>
-      </c>
-      <c r="C62" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="C62" s="4"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>86</v>
-      </c>
-      <c r="C63" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="C63" s="4"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>86</v>
-      </c>
-      <c r="C64" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="C64" s="4"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>86</v>
-      </c>
-      <c r="C65" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="C65" s="4"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>86</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>111</v>
+        <v>85</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>86</v>
-      </c>
-      <c r="C67" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="C67" s="4"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>86</v>
-      </c>
-      <c r="C68" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="C68" s="4"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>86</v>
-      </c>
-      <c r="C69" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="C69" s="4"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>86</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>112</v>
+        <v>85</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>86</v>
-      </c>
-      <c r="C71" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="C71" s="4"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>86</v>
-      </c>
-      <c r="C72" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="C72" s="4"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>85</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>113</v>
+        <v>84</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>85</v>
-      </c>
-      <c r="C74" s="3"/>
+        <v>84</v>
+      </c>
+      <c r="C74" s="4"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>85</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>114</v>
+        <v>84</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>85</v>
-      </c>
-      <c r="C76" s="3"/>
+        <v>84</v>
+      </c>
+      <c r="C76" s="4"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>85</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>115</v>
+        <v>84</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>85</v>
-      </c>
-      <c r="C78" s="3"/>
+        <v>84</v>
+      </c>
+      <c r="C78" s="4"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>87</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>116</v>
+        <v>86</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>87</v>
-      </c>
-      <c r="C80" s="3"/>
+        <v>86</v>
+      </c>
+      <c r="C80" s="4"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="C39:C42"/>
+    <mergeCell ref="C43:C46"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="C52:C53"/>
     <mergeCell ref="C75:C76"/>
     <mergeCell ref="C77:C78"/>
     <mergeCell ref="C79:C80"/>
@@ -1571,24 +1589,6 @@
     <mergeCell ref="C66:C69"/>
     <mergeCell ref="C70:C72"/>
     <mergeCell ref="C73:C74"/>
-    <mergeCell ref="C39:C42"/>
-    <mergeCell ref="C43:C46"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="C35:C38"/>
-    <mergeCell ref="C2:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C19:C20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
